--- a/DPZ.xlsx
+++ b/DPZ.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64EE7D54-7A85-44B9-AEEA-FF67C7596F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5396FA77-0E4E-490C-8AF5-0458F85E30F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{9C289A93-0B71-497B-84F3-10D63DD78418}"/>
   </bookViews>
@@ -208,7 +208,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0;\(#,##0\)"/>
     <numFmt numFmtId="165" formatCode="#,##0.0;\(#,##0.0\)"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00;\(#,##0.00\)"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -274,7 +274,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -638,7 +638,7 @@
         <v>2</v>
       </c>
       <c r="J2">
-        <v>451.49</v>
+        <v>480.97</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -646,10 +646,10 @@
         <v>3</v>
       </c>
       <c r="J3" s="4">
-        <v>34.241477000000003</v>
+        <v>33.948920999999999</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -658,7 +658,7 @@
       </c>
       <c r="J4" s="4">
         <f>+J2*J3</f>
-        <v>15459.684450730001</v>
+        <v>16328.412533369999</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -666,10 +666,11 @@
         <v>5</v>
       </c>
       <c r="J5" s="4">
-        <v>304.32</v>
+        <f>272.859+211.734</f>
+        <v>484.59299999999996</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -677,11 +678,11 @@
         <v>6</v>
       </c>
       <c r="J6" s="4">
-        <f>1149.764+3825.995</f>
-        <v>4975.759</v>
+        <f>1149.989+3825.847</f>
+        <v>4975.8360000000002</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -690,7 +691,7 @@
       </c>
       <c r="J7" s="4">
         <f>+J4-J5+J6</f>
-        <v>20131.123450730003</v>
+        <v>20819.655533369998</v>
       </c>
     </row>
   </sheetData>
@@ -703,10 +704,10 @@
   <dimension ref="A1:BB637"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
+      <selection pane="bottomRight" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,16 +751,16 @@
       <c r="B3" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="2">
-        <v>292</v>
-      </c>
+      <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
         <v>294</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="2">
+        <v>258</v>
+      </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="4"/>
@@ -811,16 +812,16 @@
       <c r="B4" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="2">
-        <v>6722</v>
-      </c>
+      <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
         <v>6737</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="2">
+        <v>6803</v>
+      </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="4"/>
@@ -872,16 +873,16 @@
       <c r="B5" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="2">
-        <v>14352</v>
-      </c>
+      <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
         <v>14327</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="2">
+        <v>14475</v>
+      </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="4"/>
@@ -935,7 +936,7 @@
       </c>
       <c r="C6" s="8">
         <f t="shared" ref="C6:F6" si="0">+SUM(C3:C5)</f>
-        <v>21366</v>
+        <v>0</v>
       </c>
       <c r="D6" s="8">
         <f t="shared" si="0"/>
@@ -955,7 +956,7 @@
       </c>
       <c r="H6" s="8">
         <f t="shared" ref="H6:J6" si="1">+SUM(H3:H5)</f>
-        <v>0</v>
+        <v>21536</v>
       </c>
       <c r="I6" s="8">
         <f t="shared" si="1"/>
@@ -1071,13 +1072,17 @@
       <c r="C8" s="4">
         <v>2212</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="4">
+        <v>2222.1</v>
+      </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4">
         <v>2240.8000000000002</v>
       </c>
-      <c r="H8" s="4"/>
+      <c r="H8" s="4">
+        <v>2335.6</v>
+      </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -1132,13 +1137,17 @@
       <c r="C9" s="4">
         <v>2152.1</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="4">
+        <v>2206.1</v>
+      </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4">
         <v>2223.5</v>
       </c>
-      <c r="H9" s="4"/>
+      <c r="H9" s="4">
+        <v>2334.1999999999998</v>
+      </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -1196,7 +1205,7 @@
       </c>
       <c r="D10" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4428.2</v>
       </c>
       <c r="E10" s="6">
         <f t="shared" si="2"/>
@@ -1212,7 +1221,7 @@
       </c>
       <c r="H10" s="6">
         <f t="shared" ref="H10:J10" si="3">+H8+H9</f>
-        <v>0</v>
+        <v>4669.7999999999993</v>
       </c>
       <c r="I10" s="6">
         <f t="shared" si="3"/>
@@ -1328,13 +1337,17 @@
       <c r="C12" s="4">
         <v>92.649000000000001</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="4">
+        <v>92.263999999999996</v>
+      </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4">
         <v>91.597999999999999</v>
       </c>
-      <c r="H12" s="4"/>
+      <c r="H12" s="4">
+        <v>92.456000000000003</v>
+      </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -1389,13 +1402,17 @@
       <c r="C13" s="4">
         <v>150.518</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="4">
+        <v>147.57599999999999</v>
+      </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4">
         <v>151</v>
       </c>
-      <c r="H13" s="4"/>
+      <c r="H13" s="4">
+        <v>156.261</v>
+      </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -1450,13 +1467,17 @@
       <c r="C14" s="4">
         <v>659.21400000000006</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="4">
+        <v>659.24400000000003</v>
+      </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4">
         <v>669.92399999999998</v>
       </c>
-      <c r="H14" s="4"/>
+      <c r="H14" s="4">
+        <v>687.06200000000001</v>
+      </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -1511,13 +1532,17 @@
       <c r="C15" s="4">
         <v>71.965999999999994</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="D15" s="4">
+        <v>73.695999999999998</v>
+      </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4">
         <v>75.558999999999997</v>
       </c>
-      <c r="H15" s="4"/>
+      <c r="H15" s="4">
+        <v>77.164000000000001</v>
+      </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
@@ -1572,13 +1597,17 @@
       <c r="C16" s="4">
         <v>110.3</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="4">
+        <v>124.956</v>
+      </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4">
         <v>123.97499999999999</v>
       </c>
-      <c r="H16" s="4"/>
+      <c r="H16" s="4">
+        <v>132.20099999999999</v>
+      </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -1636,7 +1665,7 @@
       </c>
       <c r="D17" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1097.7360000000001</v>
       </c>
       <c r="E17" s="6">
         <f t="shared" si="4"/>
@@ -1652,7 +1681,7 @@
       </c>
       <c r="H17" s="6">
         <f t="shared" ref="H17:J17" si="5">+SUM(H12:H16)</f>
-        <v>0</v>
+        <v>1145.144</v>
       </c>
       <c r="I17" s="6">
         <f t="shared" si="5"/>
@@ -1714,13 +1743,17 @@
       <c r="C18" s="4">
         <v>76.457999999999998</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="4">
+        <v>76.058999999999997</v>
+      </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4">
         <v>76.911000000000001</v>
       </c>
-      <c r="H18" s="4"/>
+      <c r="H18" s="4">
+        <v>78.072999999999993</v>
+      </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -1775,13 +1808,17 @@
       <c r="C19" s="4">
         <v>586.31899999999996</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="4">
+        <v>584.64599999999996</v>
+      </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4">
         <v>591.99800000000005</v>
       </c>
-      <c r="H19" s="4"/>
+      <c r="H19" s="4">
+        <v>606.101</v>
+      </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
@@ -1839,7 +1876,7 @@
       </c>
       <c r="D20" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>437.03100000000018</v>
       </c>
       <c r="E20" s="4">
         <f t="shared" si="6"/>
@@ -1853,7 +1890,10 @@
         <f>+G17-SUM(G18:G19)</f>
         <v>443.14699999999971</v>
       </c>
-      <c r="H20" s="4"/>
+      <c r="H20" s="4">
+        <f>+H17-SUM(H18:H19)</f>
+        <v>460.97</v>
+      </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -1908,13 +1948,17 @@
       <c r="C21" s="4">
         <v>101.024</v>
       </c>
-      <c r="D21" s="4"/>
+      <c r="D21" s="4">
+        <v>115.947</v>
+      </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4">
         <v>109.077</v>
       </c>
-      <c r="H21" s="4"/>
+      <c r="H21" s="4">
+        <v>107.608</v>
+      </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
@@ -1969,13 +2013,17 @@
       <c r="C22" s="4">
         <v>110.3</v>
       </c>
-      <c r="D22" s="4"/>
+      <c r="D22" s="4">
+        <v>124.956</v>
+      </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4">
         <v>123.97499999999999</v>
       </c>
-      <c r="H22" s="4"/>
+      <c r="H22" s="4">
+        <v>132.20099999999999</v>
+      </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
@@ -2030,13 +2078,17 @@
       <c r="C23" s="4">
         <v>0.13300000000000001</v>
       </c>
-      <c r="D23" s="4"/>
+      <c r="D23" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4">
         <v>0</v>
       </c>
-      <c r="H23" s="4"/>
+      <c r="H23" s="4">
+        <v>-3.883</v>
+      </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
@@ -2094,7 +2146,7 @@
       </c>
       <c r="D24" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>196.10300000000015</v>
       </c>
       <c r="E24" s="4">
         <f t="shared" si="7"/>
@@ -2110,7 +2162,7 @@
       </c>
       <c r="H24" s="4">
         <f t="shared" ref="H24:J24" si="8">+H20-SUM(H21:H23)</f>
-        <v>0</v>
+        <v>225.04400000000004</v>
       </c>
       <c r="I24" s="4">
         <f t="shared" si="8"/>
@@ -2172,13 +2224,17 @@
       <c r="C25" s="4">
         <v>-18.699000000000002</v>
       </c>
-      <c r="D25" s="4"/>
+      <c r="D25" s="4">
+        <v>11.398</v>
+      </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4">
         <v>24.027000000000001</v>
       </c>
-      <c r="H25" s="4"/>
+      <c r="H25" s="4">
+        <v>-15.974</v>
+      </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
@@ -2233,13 +2289,17 @@
       <c r="C26" s="4">
         <v>3.7389999999999999</v>
       </c>
-      <c r="D26" s="4"/>
+      <c r="D26" s="4">
+        <v>4.2190000000000003</v>
+      </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4">
         <v>3.9449999999999998</v>
       </c>
-      <c r="H26" s="4"/>
+      <c r="H26" s="4">
+        <v>3.8290000000000002</v>
+      </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
@@ -2294,13 +2354,17 @@
       <c r="C27" s="4">
         <v>45.845999999999997</v>
       </c>
-      <c r="D27" s="4"/>
+      <c r="D27" s="4">
+        <v>44.720999999999997</v>
+      </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4">
         <v>45.585000000000001</v>
       </c>
-      <c r="H27" s="4"/>
+      <c r="H27" s="4">
+        <v>44.648000000000003</v>
+      </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
@@ -2358,7 +2422,7 @@
       </c>
       <c r="D28" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>166.99900000000014</v>
       </c>
       <c r="E28" s="4">
         <f t="shared" si="9"/>
@@ -2374,7 +2438,7 @@
       </c>
       <c r="H28" s="4">
         <f t="shared" ref="H28:J28" si="10">+H24+H25+H26-H27</f>
-        <v>0</v>
+        <v>168.25100000000006</v>
       </c>
       <c r="I28" s="4">
         <f t="shared" si="10"/>
@@ -2436,13 +2500,17 @@
       <c r="C29" s="4">
         <v>23.783000000000001</v>
       </c>
-      <c r="D29" s="4"/>
+      <c r="D29" s="4">
+        <v>25.021000000000001</v>
+      </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4">
         <v>42.831000000000003</v>
       </c>
-      <c r="H29" s="4"/>
+      <c r="H29" s="4">
+        <v>37.159999999999997</v>
+      </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -2500,7 +2568,7 @@
       </c>
       <c r="D30" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>141.97800000000012</v>
       </c>
       <c r="E30" s="4">
         <f t="shared" si="11"/>
@@ -2516,7 +2584,7 @@
       </c>
       <c r="H30" s="4">
         <f t="shared" ref="H30:J30" si="12">+H28-H29</f>
-        <v>0</v>
+        <v>131.09100000000007</v>
       </c>
       <c r="I30" s="4">
         <f t="shared" si="12"/>
@@ -2633,9 +2701,9 @@
         <f t="shared" ref="C32:F32" si="13">+C30/C33</f>
         <v>3.5791992269949233</v>
       </c>
-      <c r="D32" s="7" t="e">
+      <c r="D32" s="7">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>4.1485256207499361</v>
       </c>
       <c r="E32" s="7" t="e">
         <f t="shared" si="13"/>
@@ -2649,9 +2717,9 @@
         <f>+G30/G33</f>
         <v>4.36503246465732</v>
       </c>
-      <c r="H32" s="7" t="e">
+      <c r="H32" s="7">
         <f t="shared" ref="H32:J32" si="14">+H30/H33</f>
-        <v>#DIV/0!</v>
+        <v>3.8371767399373837</v>
       </c>
       <c r="I32" s="7" t="e">
         <f t="shared" si="14"/>
@@ -2713,13 +2781,17 @@
       <c r="C33" s="4">
         <v>35.154232</v>
       </c>
-      <c r="D33" s="4"/>
+      <c r="D33" s="4">
+        <v>34.223725000000002</v>
+      </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4">
         <v>34.284052000000003</v>
       </c>
-      <c r="H33" s="4"/>
+      <c r="H33" s="4">
+        <v>34.163398999999998</v>
+      </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
@@ -2829,9 +2901,9 @@
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="9">
+      <c r="G35" s="9" t="e">
         <f>+G6/C6-1</f>
-        <v>-3.7442665917808426E-4</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H35" s="9" t="e">
         <f t="shared" ref="H35:J35" si="15">+H6/D6-1</f>
@@ -2902,9 +2974,9 @@
         <f>+G12/C12-1</f>
         <v>-1.1343889302636856E-2</v>
       </c>
-      <c r="H36" s="9" t="e">
+      <c r="H36" s="9">
         <f t="shared" ref="H36:J41" si="16">+H12/D12-1</f>
-        <v>#DIV/0!</v>
+        <v>2.0809849995664376E-3</v>
       </c>
       <c r="I36" s="9" t="e">
         <f t="shared" si="16"/>
@@ -2971,9 +3043,9 @@
         <f t="shared" ref="G37:G41" si="17">+G13/C13-1</f>
         <v>3.2022748109861165E-3</v>
       </c>
-      <c r="H37" s="9" t="e">
+      <c r="H37" s="9">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+        <v>5.88510326882421E-2</v>
       </c>
       <c r="I37" s="9" t="e">
         <f t="shared" si="16"/>
@@ -3040,9 +3112,9 @@
         <f t="shared" si="17"/>
         <v>1.6246620975889359E-2</v>
       </c>
-      <c r="H38" s="9" t="e">
+      <c r="H38" s="9">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+        <v>4.219681938705544E-2</v>
       </c>
       <c r="I38" s="9" t="e">
         <f t="shared" si="16"/>
@@ -3109,9 +3181,9 @@
         <f t="shared" si="17"/>
         <v>4.9926354111663906E-2</v>
       </c>
-      <c r="H39" s="9" t="e">
+      <c r="H39" s="9">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+        <v>4.7058184976118245E-2</v>
       </c>
       <c r="I39" s="9" t="e">
         <f t="shared" si="16"/>
@@ -3178,9 +3250,9 @@
         <f t="shared" si="17"/>
         <v>0.1239800543970988</v>
       </c>
-      <c r="H40" s="9" t="e">
+      <c r="H40" s="9">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+        <v>5.7980409104004593E-2</v>
       </c>
       <c r="I40" s="9" t="e">
         <f t="shared" si="16"/>
@@ -3247,9 +3319,9 @@
         <f t="shared" si="17"/>
         <v>2.5269972627038673E-2</v>
       </c>
-      <c r="H41" s="10" t="e">
+      <c r="H41" s="10">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+        <v>4.3187068657673411E-2</v>
       </c>
       <c r="I41" s="10" t="e">
         <f t="shared" si="16"/>
@@ -3309,12 +3381,12 @@
         <v>51</v>
       </c>
       <c r="C42" s="9">
-        <f t="shared" ref="C42:G42" si="18">+C20/C17</f>
+        <f t="shared" ref="C42:F42" si="18">+C20/C17</f>
         <v>0.38894681864237873</v>
       </c>
-      <c r="D42" s="9" t="e">
+      <c r="D42" s="9">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>0.39812031308074086</v>
       </c>
       <c r="E42" s="9" t="e">
         <f t="shared" si="18"/>
@@ -3328,9 +3400,9 @@
         <f>+G20/G17</f>
         <v>0.39849342119461589</v>
       </c>
-      <c r="H42" s="9" t="e">
+      <c r="H42" s="9">
         <f t="shared" ref="H42:J42" si="19">+H20/H17</f>
-        <v>#DIV/0!</v>
+        <v>0.40254326093486936</v>
       </c>
       <c r="I42" s="9" t="e">
         <f t="shared" si="19"/>
@@ -3390,12 +3462,12 @@
         <v>52</v>
       </c>
       <c r="C43" s="9">
-        <f t="shared" ref="C43:G43" si="20">+C24/C17</f>
+        <f t="shared" ref="C43:F43" si="20">+C24/C17</f>
         <v>0.19399214675373663</v>
       </c>
-      <c r="D43" s="9" t="e">
+      <c r="D43" s="9">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
+        <v>0.17864313459702527</v>
       </c>
       <c r="E43" s="9" t="e">
         <f t="shared" si="20"/>
@@ -3409,9 +3481,9 @@
         <f>+G24/G17</f>
         <v>0.18892483831749457</v>
       </c>
-      <c r="H43" s="9" t="e">
+      <c r="H43" s="9">
         <f t="shared" ref="H43:J43" si="21">+H24/H17</f>
-        <v>#DIV/0!</v>
+        <v>0.19652026295382943</v>
       </c>
       <c r="I43" s="9" t="e">
         <f t="shared" si="21"/>
@@ -3471,12 +3543,12 @@
         <v>53</v>
       </c>
       <c r="C44" s="9">
-        <f t="shared" ref="C44:G44" si="22">+C29/C28</f>
+        <f t="shared" ref="C44:F44" si="22">+C29/C28</f>
         <v>0.15896983429919703</v>
       </c>
-      <c r="D44" s="9" t="e">
+      <c r="D44" s="9">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <v>0.1498272444745177</v>
       </c>
       <c r="E44" s="9" t="e">
         <f t="shared" si="22"/>
@@ -3490,9 +3562,9 @@
         <f>+G29/G28</f>
         <v>0.22251950831766121</v>
       </c>
-      <c r="H44" s="9" t="e">
+      <c r="H44" s="9">
         <f t="shared" ref="H44:J44" si="23">+H29/H28</f>
-        <v>#DIV/0!</v>
+        <v>0.22086050008618066</v>
       </c>
       <c r="I44" s="9" t="e">
         <f t="shared" si="23"/>
